--- a/BackTest/2020-01-24 BackTest XSR.xlsx
+++ b/BackTest/2020-01-24 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-7791278.956283757</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7878724.876583757</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-7838761.109983757</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-8543336.759683758</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-8543336.759683758</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9022464.749683758</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9021824.486383758</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-9208071.637983758</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8602207.816283759</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9396551.218583759</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-9976427.538683759</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-9928462.175483759</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-10580991.92278376</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-10461905.24708376</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-10461905.24708376</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-10461905.24708376</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-9833966.46138376</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-10699192.94088376</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-10699192.94088376</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-10699092.94088376</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-11708579.66878376</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-11707789.66878376</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-12224731.75448376</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-12503578.73618376</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-13096272.36398376</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-13097079.50028376</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-13151261.22128376</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-13806634.43038376</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-14943193.16388376</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-14946198.00388376</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-14944599.00388376</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-15484110.77818376</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-14732303.95548376</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-14732303.95548376</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-15199742.10868376</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-14520907.97158376</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-14520809.95908376</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-14960249.53018376</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-15832086.59738376</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-15314498.88608376</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-15314398.88608376</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-15753556.30018376</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-15754124.59334464</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-15754797.59334464</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-16031586.72814464</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-16029849.49724464</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-16782835.05054464</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-16782835.05054464</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-16423171.92324464</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-17242053.26034464</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-17853078.34334464</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-17852415.34334464</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-18843022.69364464</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-18917907.73134464</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-19407906.88274464</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-19419049.39424464</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-20160180.72634465</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-20160180.72634465</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-20583844.81864465</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-20225140.16144465</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-20220426.16144465</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-20600079.06234465</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-20879074.90264465</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-21299118.01854465</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-22456504.70084465</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-34595056.11576661</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-34905845.40336661</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-36114517.26066661</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-36113740.26066661</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-36110286.97246661</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-36857487.62566663</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-36857487.62566663</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-36857389.10046662</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-36857389.10046662</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-36858055.10046662</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-36857956.64596663</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-37512570.65636662</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-38174482.29816663</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-38174482.29816663</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-38233066.10366663</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-39004118.29046663</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-39004318.29046663</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-38480070.86296663</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-38480170.86296663</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-38576379.12316663</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-38040780.56246663</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-38042590.40576663</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-38061955.41946663</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-38473996.83276663</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-38473996.83276663</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-38875813.84736663</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-39278854.68836664</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-34793391.74926665</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-36627091.84386665</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-36627091.84386665</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-36525214.58396664</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-36904241.76146664</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-36904241.76146664</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28501,11 +28501,17 @@
         <v>-54745748.95989073</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>4.79</v>
+      </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28544,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +28581,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +28618,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +28651,17 @@
         <v>-54033946.65749072</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>4.784</v>
+      </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28670,7 +28694,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +28731,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +28768,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +28805,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +28842,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +28879,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +28916,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +28949,17 @@
         <v>-54342755.07549072</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>4.794</v>
+      </c>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28930,11 +28988,17 @@
         <v>-53557090.29169072</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>4.782</v>
+      </c>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +29031,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +29068,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +29105,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29062,15 +29138,15 @@
         <v>-54239827.55219072</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>4.779</v>
-      </c>
-      <c r="J869" t="n">
-        <v>4.779</v>
-      </c>
-      <c r="K869" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29102,12 +29178,10 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L870" t="n">
@@ -29138,14 +29212,10 @@
         <v>-53659493.90439072</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>4.779</v>
-      </c>
-      <c r="J871" t="n">
-        <v>4.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29182,9 +29252,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29218,14 +29286,10 @@
         <v>-53042177.85639072</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J873" t="n">
-        <v>4.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29262,9 +29326,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29301,9 +29363,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29340,9 +29400,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29379,9 +29437,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29418,9 +29474,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29457,9 +29511,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29496,9 +29548,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29535,9 +29585,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29574,9 +29622,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29613,9 +29659,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29652,9 +29696,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29691,9 +29733,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29730,9 +29770,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29769,9 +29807,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29808,9 +29844,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29847,9 +29881,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29886,9 +29918,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29925,9 +29955,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29964,9 +29992,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30003,9 +30029,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30042,9 +30066,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30081,9 +30103,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30120,9 +30140,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30159,9 +30177,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30198,9 +30214,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30237,9 +30251,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30276,9 +30288,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30315,9 +30325,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30354,9 +30362,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30393,9 +30399,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30432,9 +30436,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30471,9 +30473,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30510,9 +30510,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30549,9 +30547,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30588,9 +30584,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30627,9 +30621,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30666,9 +30658,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30705,9 +30695,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30744,9 +30732,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30783,9 +30769,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30822,9 +30806,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30861,9 +30843,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30900,9 +30880,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30939,9 +30917,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30978,9 +30954,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31017,9 +30991,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31056,9 +31028,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31095,9 +31065,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31134,9 +31102,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31173,9 +31139,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31212,9 +31176,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31251,9 +31213,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31290,9 +31250,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31329,9 +31287,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31368,9 +31324,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31407,9 +31361,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31446,9 +31398,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31485,9 +31435,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31524,9 +31472,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31563,9 +31509,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31602,9 +31546,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31641,9 +31583,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31680,9 +31620,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31719,9 +31657,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31758,9 +31694,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31797,9 +31731,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31836,9 +31768,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31875,9 +31805,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31911,12 +31839,12 @@
         <v>-51056331.9662907</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>4.779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31953,9 +31881,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31992,9 +31918,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32031,9 +31955,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32070,9 +31992,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32109,9 +32029,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32148,9 +32066,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32187,9 +32103,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32226,9 +32140,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32262,12 +32174,12 @@
         <v>-51292294.3887907</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>4.779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32304,9 +32216,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32343,9 +32253,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32379,12 +32287,12 @@
         <v>-52006987.1066907</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>4.779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>4.796</v>
+      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32418,12 +32326,12 @@
         <v>-51608766.30609071</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>4.779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>4.795</v>
+      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32457,12 +32365,12 @@
         <v>-53533488.1575907</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>4.779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>4.815</v>
+      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32499,9 +32407,7 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32538,9 +32444,7 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32577,9 +32481,7 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32616,9 +32518,7 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32655,9 +32555,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32691,12 +32589,12 @@
         <v>-52983538.2197907</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>4.779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>4.803</v>
+      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32730,14 +32628,10 @@
         <v>-52727978.1405907</v>
       </c>
       <c r="H963" t="n">
-        <v>1</v>
-      </c>
-      <c r="I963" t="n">
-        <v>4.826</v>
-      </c>
-      <c r="J963" t="n">
-        <v>4.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32771,14 +32665,10 @@
         <v>-52727978.1405907</v>
       </c>
       <c r="H964" t="n">
-        <v>1</v>
-      </c>
-      <c r="I964" t="n">
-        <v>4.848</v>
-      </c>
-      <c r="J964" t="n">
-        <v>4.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32812,14 +32702,10 @@
         <v>-53211010.95489071</v>
       </c>
       <c r="H965" t="n">
-        <v>1</v>
-      </c>
-      <c r="I965" t="n">
-        <v>4.848</v>
-      </c>
-      <c r="J965" t="n">
-        <v>4.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32856,9 +32742,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32892,14 +32776,10 @@
         <v>-53523767.81359071</v>
       </c>
       <c r="H967" t="n">
-        <v>1</v>
-      </c>
-      <c r="I967" t="n">
-        <v>4.848</v>
-      </c>
-      <c r="J967" t="n">
-        <v>4.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32933,14 +32813,10 @@
         <v>-53847666.2874907</v>
       </c>
       <c r="H968" t="n">
-        <v>1</v>
-      </c>
-      <c r="I968" t="n">
-        <v>4.814</v>
-      </c>
-      <c r="J968" t="n">
-        <v>4.779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32977,9 +32853,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33016,9 +32890,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33055,9 +32927,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33091,12 +32961,12 @@
         <v>-54348803.3137907</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>4.779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>4.805</v>
+      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33130,12 +33000,12 @@
         <v>-54399243.7190907</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>4.779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>4.805</v>
+      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33174,9 +33044,7 @@
       <c r="I974" t="n">
         <v>4.804</v>
       </c>
-      <c r="J974" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33215,9 +33083,7 @@
       <c r="I975" t="n">
         <v>4.828</v>
       </c>
-      <c r="J975" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33256,9 +33122,7 @@
       <c r="I976" t="n">
         <v>4.848</v>
       </c>
-      <c r="J976" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33295,9 +33159,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33334,9 +33196,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33373,9 +33233,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33412,9 +33270,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33451,9 +33307,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33490,9 +33344,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33529,9 +33381,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33568,9 +33418,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33607,9 +33455,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33646,9 +33492,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33685,9 +33529,7 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33724,9 +33566,7 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33763,9 +33603,7 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33802,9 +33640,7 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33841,9 +33677,7 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33880,9 +33714,7 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33919,9 +33751,7 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33958,9 +33788,7 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33997,9 +33825,7 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>4.779</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34011,6 +33837,6 @@
       <c r="M995" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest XSR.xlsx
+++ b/BackTest/2020-01-24 BackTest XSR.xlsx
@@ -451,7 +451,7 @@
         <v>-7791278.956283757</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7878724.876583757</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-7838761.109983757</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-8543336.759683758</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-8543336.759683758</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9022464.749683758</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9021824.486383758</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-9208071.637983758</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8602207.816283759</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8927444.296383759</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9396551.218583759</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-9125938.144883759</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-9976427.538683759</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-9928462.175483759</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-10461905.24708376</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-9833966.46138376</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-10699192.94088376</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-10699192.94088376</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-12503578.73618376</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-12867679.11508376</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-13493477.09038376</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-12835598.42368376</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-11205877.29928376</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-11319602.91918376</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-13556959.94638376</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-13655625.53558376</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-14244236.18628376</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-14550534.47618376</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-14550391.47618376</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-15283329.66478376</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-15988356.96418376</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-15657442.15848376</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-15657094.99788376</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-15657193.99788376</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-14943193.16388376</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-14943193.16388376</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-14943193.16388376</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-14946198.00388376</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-14944599.00388376</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-15484110.77818376</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-15225171.19698376</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-14158472.26148376</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-14732303.95548376</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-14732303.95548376</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-14732303.95548376</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-14520907.97158376</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-14520809.95908376</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-14960249.53018376</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-15832086.59738376</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-15314498.88608376</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-15314398.88608376</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-15753556.30018376</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-15754124.59334464</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-15754797.59334464</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-16031586.72814464</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-16029849.49724464</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-16782835.05054464</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-16782835.05054464</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-16423171.92324464</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-17242053.26034464</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-17853078.34334464</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-17852415.34334464</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-18843022.69364464</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-18178205.21364464</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-18159517.17454464</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-18917907.73134464</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-18917507.73134464</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-19407906.88274464</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-19419049.39424464</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-20160180.72634465</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-20160180.72634465</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-20583844.81864465</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-20225140.16144465</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-20220426.16144465</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-20220504.80294465</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-20196235.03364465</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-20600079.06234465</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-20879074.90264465</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-21298577.96244465</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-21299118.01854465</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-22036043.34314465</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-21434620.80234465</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-21481739.67104465</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-21329719.24974465</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-22012621.76424465</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-21353649.85494465</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-22091141.56794465</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-22091041.56794465</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-22091041.56794465</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-22456504.70084465</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-22457791.49134465</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-22447791.49134465</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-22447791.49134465</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-22974702.56004465</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-22974196.56004465</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-23730245.72334465</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-23100614.09964465</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-23710502.84264465</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-23710502.84264465</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-23710502.84264465</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-23710404.33014465</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-23710404.33014465</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-24384630.65804465</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-24384630.65804465</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-23685448.73124465</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-23686448.73124465</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-24438454.51474465</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-24438054.69134182</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-25195437.37654182</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-24769281.45894182</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-24572993.09974182</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-24699363.63754182</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-24699363.63754182</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-24827793.07445446</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-34595056.11576661</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-34905845.40336661</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-36114517.26066661</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-36113740.26066661</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-36110286.97246661</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-36857487.62566663</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-36857487.62566663</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-36857389.10046662</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-36857389.10046662</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-36858055.10046662</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-36857956.64596663</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-37512570.65636662</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-38174482.29816663</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-38174482.29816663</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-38233066.10366663</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-39004118.29046663</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-39004318.29046663</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-38480070.86296663</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-38480170.86296663</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-38576379.12316663</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-38040780.56246663</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-38042590.40576663</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-38061955.41946663</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-38473996.83276663</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-38473996.83276663</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-38875813.84736663</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-39278854.68836664</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-34793391.74926665</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-36627091.84386665</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-36627091.84386665</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-36525214.58396664</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-36904241.76146664</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-36904241.76146664</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28501,17 +28501,11 @@
         <v>-54745748.95989073</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>4.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28544,11 +28538,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28581,11 +28571,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28618,11 +28604,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28651,17 +28633,11 @@
         <v>-54033946.65749072</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>4.784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28694,11 +28670,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28731,11 +28703,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28768,11 +28736,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28805,11 +28769,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28842,11 +28802,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28879,11 +28835,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28916,11 +28868,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28949,17 +28897,11 @@
         <v>-54342755.07549072</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>4.794</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28988,17 +28930,11 @@
         <v>-53557090.29169072</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>4.782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29031,11 +28967,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29068,11 +29000,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29105,11 +29033,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29142,11 +29066,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29175,15 +29095,15 @@
         <v>-53854406.98389072</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>4.767</v>
+      </c>
+      <c r="J870" t="n">
+        <v>4.767</v>
+      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29212,13 +29132,17 @@
         <v>-53659493.90439072</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>4.779</v>
+      </c>
+      <c r="J871" t="n">
+        <v>4.767</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L871" t="n">
@@ -29249,13 +29173,17 @@
         <v>-53043505.95799072</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="J872" t="n">
+        <v>4.767</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L872" t="n">
@@ -29286,15 +29214,15 @@
         <v>-53042177.85639072</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J873" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29323,13 +29251,17 @@
         <v>-52590774.81349072</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>4.802</v>
+      </c>
+      <c r="J874" t="n">
+        <v>4.8</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L874" t="n">
@@ -29360,13 +29292,17 @@
         <v>-51998201.38909072</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>4.825</v>
+      </c>
+      <c r="J875" t="n">
+        <v>4.8</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L875" t="n">
@@ -29401,11 +29337,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29438,11 +29370,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29475,11 +29403,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29508,13 +29432,15 @@
         <v>-52990198.77729072</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>4.847</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L879" t="n">
@@ -30803,9 +30729,11 @@
         <v>-50447328.37849071</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>4.838</v>
+      </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -30840,9 +30768,11 @@
         <v>-50942628.09219071</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>4.854</v>
+      </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
@@ -30877,9 +30807,11 @@
         <v>-50911838.80539071</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>4.84</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -30914,9 +30846,11 @@
         <v>-50910838.80539071</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>4.854</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -30951,9 +30885,11 @@
         <v>-50490092.16199071</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>4.86</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31025,9 +30961,11 @@
         <v>-49689820.5634907</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>4.865</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31839,11 +31777,9 @@
         <v>-51056331.9662907</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
-      </c>
-      <c r="I942" t="n">
-        <v>4.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -32174,11 +32110,9 @@
         <v>-51292294.3887907</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
-      </c>
-      <c r="I951" t="n">
-        <v>4.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32287,11 +32221,9 @@
         <v>-52006987.1066907</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
-      </c>
-      <c r="I954" t="n">
-        <v>4.796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -32326,11 +32258,9 @@
         <v>-51608766.30609071</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
-      </c>
-      <c r="I955" t="n">
-        <v>4.795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -32365,11 +32295,9 @@
         <v>-53533488.1575907</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
-      </c>
-      <c r="I956" t="n">
-        <v>4.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32589,11 +32517,9 @@
         <v>-52983538.2197907</v>
       </c>
       <c r="H962" t="n">
-        <v>1</v>
-      </c>
-      <c r="I962" t="n">
-        <v>4.803</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
@@ -32961,11 +32887,9 @@
         <v>-54348803.3137907</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
-      </c>
-      <c r="I972" t="n">
-        <v>4.805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -33000,11 +32924,9 @@
         <v>-54399243.7190907</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
-      </c>
-      <c r="I973" t="n">
-        <v>4.805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -33039,11 +32961,9 @@
         <v>-54008308.88652711</v>
       </c>
       <c r="H974" t="n">
-        <v>1</v>
-      </c>
-      <c r="I974" t="n">
-        <v>4.804</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -33078,11 +32998,9 @@
         <v>-53970846.5440907</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
-      </c>
-      <c r="I975" t="n">
-        <v>4.828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
